--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rcf817691b5284a82"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R78886ced732f492f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R22b58ca7a8f44326"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R905b9f0c80b64986"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfbd40afccb1447e4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc1e5c364728a4128"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2007,6 +2007,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7ef4b756ab34471b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfab4bd48db3c4570"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R22b58ca7a8f44326"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R905b9f0c80b64986"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rc386702db5aa4cb8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Rc086e10d31394f2d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc1e5c364728a4128"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf82fd829e29244ca"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2007,6 +2007,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfab4bd48db3c4570"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R78d9388aeea44161"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rc386702db5aa4cb8"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Rc086e10d31394f2d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R933c6ad32b7e47bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Rb13948b69d574480"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf82fd829e29244ca"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0e05d348ad33457c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2007,6 +2007,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R78d9388aeea44161"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbb3492b87c5042ef"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R933c6ad32b7e47bb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Rb13948b69d574480"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R7aea1646a37d411f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Re6119e7696654dce"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0e05d348ad33457c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re26f180a3ff14570"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2007,6 +2007,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbb3492b87c5042ef"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9776aea27d174f7e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R7aea1646a37d411f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Re6119e7696654dce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R4b10b31a7c8a4174"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R09df1c0675904d0c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re26f180a3ff14570"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf290f75deb0b461f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2007,6 +2007,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9776aea27d174f7e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7bece83c9dad4f33"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R4b10b31a7c8a4174"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R09df1c0675904d0c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R46035fd4eb244663"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Red55974757544af3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf290f75deb0b461f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R011715cacac64a84"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2007,6 +2007,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7bece83c9dad4f33"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R19ee5294d0634735"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R46035fd4eb244663"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Red55974757544af3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R5f1f8e0c90394386"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Rd7e7b469f55244f1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R011715cacac64a84"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdd9995f959f24f4d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2007,6 +2007,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R19ee5294d0634735"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb820995c54c0421a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R5f1f8e0c90394386"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Rd7e7b469f55244f1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R00e4ac8859e743e2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R95d06c134b284047"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdd9995f959f24f4d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf4abfd2897f941fd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2007,6 +2007,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb820995c54c0421a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd9e92c5f747a4dcb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R00e4ac8859e743e2"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R95d06c134b284047"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rf4165be0ab6c4def"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R8d435d1c6a764edc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf4abfd2897f941fd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7b3f397c0ee64681"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2007,6 +2007,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd9e92c5f747a4dcb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbd986069438b42a8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rf4165be0ab6c4def"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R8d435d1c6a764edc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R05f64f460f4f49c6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R502c9d4acced40ea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7b3f397c0ee64681"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1b477e4c268040b3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2007,6 +2007,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbd986069438b42a8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfac0d505761d45b8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R05f64f460f4f49c6"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R502c9d4acced40ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R8c1137480040445b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Rf325d750c3aa48c1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,12 +31,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1b477e4c268040b3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6185c98808844a8b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2007,6 +2007,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfac0d505761d45b8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3d0a16e5e67b4a13"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R8c1137480040445b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Rf325d750c3aa48c1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R33ed3f80a6204fd6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R7325fadd8a2e4999"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,12 +31,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6185c98808844a8b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6d6921cf1f794593"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2007,6 +2007,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3d0a16e5e67b4a13"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R154edc86f6764bfb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/063_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R33ed3f80a6204fd6"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R7325fadd8a2e4999"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rd186978bcb584419"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R44bca547e59e44d0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6d6921cf1f794593"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3201b58a4c474c28"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2007,6 +2007,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R154edc86f6764bfb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R79b4f27aee244fa6"/>
 </x:worksheet>
 </file>